--- a/Analyzed Data/217/217 NM9505 30C Discharge/217 NM9505 30C Discharge Fitted (sphere).xlsx
+++ b/Analyzed Data/217/217 NM9505 30C Discharge/217 NM9505 30C Discharge Fitted (sphere).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Initial SOC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dc (cm^2/s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dt* (cm^2/s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>dq/dV (mAh/gV)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Rfit (Ohm)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>micR (Ohmcm^2)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Rdrop (Ohm)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Cap Span</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Fit Error</t>
         </is>
@@ -493,27 +508,36 @@
         <v>4.079665238613861</v>
       </c>
       <c r="C2" t="n">
+        <v>0.3960886572239356</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3958394903416266</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.157558107479359e-11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
+        <v>5.828002714965786e-13</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0498005143323797</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>126.7782547850732</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>220.3868938570174</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>760.6490762244771</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>76.81474913338646</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>0.3654961732399215</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>0.01152856572552719</v>
       </c>
     </row>
@@ -525,27 +549,36 @@
         <v>4.078467861386139</v>
       </c>
       <c r="C3" t="n">
+        <v>0.4023458642366347</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3963378423106784</v>
+      </c>
+      <c r="E3" t="n">
         <v>5.568086203823962e-12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
+        <v>3.496847253060244e-13</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.02911930346603647</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>158.9726503958735</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>213.6446998790807</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>737.3788919984991</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>83.56512119233439</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>0.7874076917388831</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>0.04179088297088416</v>
       </c>
     </row>
@@ -557,27 +590,36 @@
         <v>4.05479685841584</v>
       </c>
       <c r="C4" t="n">
+        <v>0.4171201318292562</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4083539042058624</v>
+      </c>
+      <c r="E4" t="n">
         <v>3.936782062699057e-12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>3.347207706226145e-13</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.02619889146349305</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>217.6124450135055</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>198.6082660823661</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>685.4817520324453</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>79.67874920162602</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>0.8188345433021551</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>0.04147261859099228</v>
       </c>
     </row>
@@ -589,27 +631,36 @@
         <v>4.029612879207919</v>
       </c>
       <c r="C5" t="n">
+        <v>0.4389759224103313</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.425886378228242</v>
+      </c>
+      <c r="E5" t="n">
         <v>2.718717063249616e-12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
+        <v>3.406448327947802e-13</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.02546520559828324</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>324.8345574797429</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>187.2666556322563</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>646.3370217774288</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>79.00848647556631</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>0.8611844821343051</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>0.03948910028105799</v>
       </c>
     </row>
@@ -621,27 +672,36 @@
         <v>4.004421375247524</v>
       </c>
       <c r="C6" t="n">
+        <v>0.4692089789652564</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4520654850259194</v>
+      </c>
+      <c r="E6" t="n">
         <v>2.778249224760498e-12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
+        <v>4.577545569129305e-13</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0342313937379683</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>431.9700023991663</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>185.2419300086274</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>639.3488309269308</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>80.41592686140227</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>0.8749950859210218</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>0.02533258667977395</v>
       </c>
     </row>
@@ -653,27 +713,36 @@
         <v>3.979635982178218</v>
       </c>
       <c r="C7" t="n">
+        <v>0.5002748565826929</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4863524914266237</v>
+      </c>
+      <c r="E7" t="n">
         <v>5.154111842558093e-12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
+        <v>6.850012193479433e-13</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.04856909350990727</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
         <v>349.7676313433456</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>174.9709901920249</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>603.8994412344359</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>75.25586442720815</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>0.8901223289616781</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>0.01213788934836782</v>
       </c>
     </row>
@@ -685,27 +754,36 @@
         <v>3.954793166336632</v>
       </c>
       <c r="C8" t="n">
+        <v>0.5249486453635803</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5141972399161205</v>
+      </c>
+      <c r="E8" t="n">
         <v>6.206409775495374e-12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
+        <v>6.417500104921983e-13</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.04174746049774485</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>271.4470027600386</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>160.9326162097152</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>555.4470309551501</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>73.66880698102561</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>0.8727922548477088</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>0.02265592246324346</v>
       </c>
     </row>
@@ -717,27 +795,36 @@
         <v>3.930039576237625</v>
       </c>
       <c r="C9" t="n">
+        <v>0.5448403736246665</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5357000683961815</v>
+      </c>
+      <c r="E9" t="n">
         <v>6.907682193225536e-12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
+        <v>6.047603083263741e-13</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.03757939468981244</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>228.5526062182337</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>154.5862136648225</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>533.5428916089455</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>77.02847000184757</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>0.8552715154821239</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>0.03073548060780957</v>
       </c>
     </row>
@@ -749,27 +836,36 @@
         <v>3.905040907920794</v>
       </c>
       <c r="C10" t="n">
+        <v>0.5622681706358583</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.553980696464079</v>
+      </c>
+      <c r="E10" t="n">
         <v>7.548521613012493e-12</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
+        <v>5.988227237369441e-13</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.03488394992946854</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>205.5371017124789</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>146.0202303959095</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>503.9780334342112</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>73.66253960792535</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>0.861867225230369</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>0.03550112786475172</v>
       </c>
     </row>
@@ -781,27 +877,36 @@
         <v>3.879798912871288</v>
       </c>
       <c r="C11" t="n">
+        <v>0.578903184602876</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5705556622728748</v>
+      </c>
+      <c r="E11" t="n">
         <v>7.081876370830936e-12</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
+        <v>5.706174138051595e-13</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.03080904282759426</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>206.7696573921492</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>136.6414817190635</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>471.6079755222701</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>71.35742533075224</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>0.8583319443241024</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>0.03940865438980744</v>
       </c>
     </row>
@@ -813,27 +918,36 @@
         <v>3.854562531683164</v>
       </c>
       <c r="C12" t="n">
+        <v>0.5966942129091843</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5872507247518109</v>
+      </c>
+      <c r="E12" t="n">
         <v>6.146186509393138e-12</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
+        <v>5.672288283856596e-13</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.028874639470844</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>233.7981508289888</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>130.4996267130774</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>450.4098168893026</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>67.30552273321572</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>0.8397525997863347</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>0.04782971574065369</v>
       </c>
     </row>
@@ -845,27 +959,36 @@
         <v>3.829337313861384</v>
       </c>
       <c r="C13" t="n">
+        <v>0.6176990490756202</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6061377185296459</v>
+      </c>
+      <c r="E13" t="n">
         <v>4.836595931690116e-12</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
+        <v>5.587867514346128e-13</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.02813768041655332</v>
       </c>
-      <c r="E13" t="n">
+      <c r="H13" t="n">
         <v>287.204233820033</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>131.5519089968339</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>454.0416914216698</v>
       </c>
-      <c r="H13" t="n">
+      <c r="K13" t="n">
         <v>68.69936080359044</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>0.8590364788000737</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>0.04708459453119734</v>
       </c>
     </row>
@@ -877,27 +1000,36 @@
         <v>3.804191037623763</v>
       </c>
       <c r="C14" t="n">
+        <v>0.6433108606331771</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6292603979119814</v>
+      </c>
+      <c r="E14" t="n">
         <v>4.04189785928875e-12</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
+        <v>5.888423287884334e-13</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.03014812382726288</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>351.9060138987078</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>137.6536631688224</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>475.1014449897881</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>65.88320271901712</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>0.8700769363864256</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>0.03907481938429254</v>
       </c>
     </row>
@@ -909,27 +1041,36 @@
         <v>3.77928412079208</v>
       </c>
       <c r="C15" t="n">
+        <v>0.6727871739124847</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6573613409983925</v>
+      </c>
+      <c r="E15" t="n">
         <v>3.716255293071904e-12</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
+        <v>6.251070402306969e-13</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.03444249742471895</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
         <v>389.815500183573</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>154.407892688995</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>532.9274299398746</v>
       </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
         <v>69.66660591965876</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>0.8805677735182961</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>0.02751395551453794</v>
       </c>
     </row>
@@ -941,27 +1082,36 @@
         <v>3.754605100000001</v>
       </c>
       <c r="C16" t="n">
+        <v>0.7033230258991627</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6882130244259008</v>
+      </c>
+      <c r="E16" t="n">
         <v>3.615038961629561e-12</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
+        <v>6.327148128243689e-13</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.04038152014862514</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>384.4465153814825</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>188.7005902482881</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
         <v>651.286141128231</v>
       </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
         <v>74.07764453757869</v>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>0.8677505437819734</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>0.02298401893036867</v>
       </c>
     </row>
@@ -973,27 +1123,36 @@
         <v>3.730121208910892</v>
       </c>
       <c r="C17" t="n">
+        <v>0.732830146926452</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7184330453834638</v>
+      </c>
+      <c r="E17" t="n">
         <v>3.158132565025076e-12</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
+        <v>5.659222660099462e-13</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.04331179314332905</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
         <v>369.3341248164798</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
         <v>241.1547818586164</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>832.3279067895946</v>
       </c>
-      <c r="H17" t="n">
+      <c r="K17" t="n">
         <v>84.57002400162344</v>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>0.8298001957570044</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>0.02418481373387017</v>
       </c>
     </row>
@@ -1005,27 +1164,36 @@
         <v>3.710744644554454</v>
       </c>
       <c r="C18" t="n">
+        <v>0.7665324526652577</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7472273138393399</v>
+      </c>
+      <c r="E18" t="n">
         <v>1.601332270339122e-12</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
+        <v>3.139596027534443e-13</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.03717351956614361</v>
       </c>
-      <c r="E18" t="n">
+      <c r="H18" t="n">
         <v>369.3614910381204</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
         <v>408.1690939018861</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>1408.765461440191</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>87.7976400382918</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>0.9271173633896395</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>0.04207256872898964</v>
       </c>
     </row>
@@ -1037,27 +1205,36 @@
         <v>3.678264876237626</v>
       </c>
       <c r="C19" t="n">
+        <v>0.8054696987887738</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7858376080356086</v>
+      </c>
+      <c r="E19" t="n">
         <v>6.952712642612671e-13</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
+        <v>2.099275718893491e-13</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.03151322466182756</v>
       </c>
-      <c r="E19" t="n">
+      <c r="H19" t="n">
         <v>498.0281615253886</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
         <v>591.0499300250049</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>2039.965151320392</v>
       </c>
-      <c r="H19" t="n">
+      <c r="K19" t="n">
         <v>95.73024288014035</v>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>0.8713634890542202</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>0.05604679991973128</v>
       </c>
     </row>
@@ -1069,27 +1246,36 @@
         <v>3.654131658415842</v>
       </c>
       <c r="C20" t="n">
+        <v>0.8459113614399476</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8251018068161272</v>
+      </c>
+      <c r="E20" t="n">
         <v>1.047914750872833e-12</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
+        <v>4.33344497718626e-13</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.1046798080455981</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
         <v>567.4205249560617</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
         <v>1143.32955114773</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
         <v>3946.117446824643</v>
       </c>
-      <c r="H20" t="n">
+      <c r="K20" t="n">
         <v>112.5968102692218</v>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>0.8099088013149298</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>0.03099303467976691</v>
       </c>
     </row>
@@ -1101,27 +1287,36 @@
         <v>3.631249126732675</v>
       </c>
       <c r="C21" t="n">
+        <v>0.8773903373990495</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8667209314454651</v>
+      </c>
+      <c r="E21" t="n">
         <v>1.083660887399137e-12</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
+        <v>2.944239224021266e-13</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.07284893156602047</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>307.6801456374733</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
         <v>1418.958916772753</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
         <v>4897.431831603954</v>
       </c>
-      <c r="H21" t="n">
+      <c r="K21" t="n">
         <v>106.0927618288827</v>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>0.7061659409230358</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>0.0630728854397454</v>
       </c>
     </row>
@@ -1133,27 +1328,36 @@
         <v>3.610135949504952</v>
       </c>
       <c r="C22" t="n">
+        <v>0.8953538329290234</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8880597599116568</v>
+      </c>
+      <c r="E22" t="n">
         <v>3.734794614554853e-13</v>
       </c>
-      <c r="D22" t="n">
+      <c r="F22" t="n">
+        <v>9.045353365348967e-14</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.03635453707419597</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>238.8796032322036</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>2646.380769047756</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
         <v>9133.787640840246</v>
       </c>
-      <c r="H22" t="n">
+      <c r="K22" t="n">
         <v>112.3914036949229</v>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>0.5360254109674992</v>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
         <v>0.05569799253801871</v>
       </c>
     </row>
@@ -1165,27 +1369,36 @@
         <v>3.591390859405938</v>
       </c>
       <c r="C23" t="n">
+        <v>0.9094860424441644</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.902647923356116</v>
+      </c>
+      <c r="E23" t="n">
         <v>1.219049347054211e-13</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
+        <v>3.622706846319306e-14</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.02079050285740072</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>257.5287563009559</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>4300.881561130353</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
         <v>14844.17484710841</v>
       </c>
-      <c r="H23" t="n">
+      <c r="K23" t="n">
         <v>112.5243208965416</v>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>0.3930270182665991</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>0.02259246250103813</v>
       </c>
     </row>
@@ -1197,27 +1410,36 @@
         <v>3.574813764356436</v>
       </c>
       <c r="C24" t="n">
+        <v>0.9258853236833597</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9163241771002005</v>
+      </c>
+      <c r="E24" t="n">
         <v>5.688860843375288e-14</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
+        <v>2.725437535410858e-14</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.01882357195113013</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>346.0784611390225</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>6209.28598525037</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
         <v>21430.89167434126</v>
       </c>
-      <c r="H24" t="n">
+      <c r="K24" t="n">
         <v>130.9768710000335</v>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>0.3374031327707279</v>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>0.006879741436582309</v>
       </c>
     </row>
@@ -1229,27 +1451,36 @@
         <v>3.55795696039604</v>
       </c>
       <c r="C25" t="n">
+        <v>0.9413348735263719</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9354464874033281</v>
+      </c>
+      <c r="E25" t="n">
         <v>1.523835349361711e-14</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" t="n">
+        <v>1.167708414791442e-14</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.01081382022468363</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>445.4744063376046</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>10345.65161423969</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
         <v>35707.25194038628</v>
       </c>
-      <c r="H25" t="n">
+      <c r="K25" t="n">
         <v>144.8431137920595</v>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
         <v>0.137969387075117</v>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>0.01478873302274205</v>
       </c>
     </row>
@@ -1261,27 +1492,36 @@
         <v>3.550077059405941</v>
       </c>
       <c r="C26" t="n">
+        <v>0.9525920751723115</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9472232777815977</v>
+      </c>
+      <c r="E26" t="n">
         <v>6.213097443836775e-15</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
+        <v>6.575574306855915e-15</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.006536414340188332</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>503.1363175968769</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
         <v>13579.54592709428</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
         <v>46868.7991568752</v>
       </c>
-      <c r="H26" t="n">
+      <c r="K26" t="n">
         <v>169.2631532767991</v>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
         <v>0.08283265814770374</v>
       </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
         <v>0.01983289541959986</v>
       </c>
     </row>
@@ -1293,27 +1533,36 @@
         <v>3.543683444554458</v>
       </c>
       <c r="C27" t="n">
+        <v>0.9628349542293417</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9579608901811028</v>
+      </c>
+      <c r="E27" t="n">
         <v>2.887562635225322e-15</v>
       </c>
-      <c r="D27" t="n">
+      <c r="F27" t="n">
+        <v>4.182827450788068e-15</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.00377366186808143</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>545.6664957417095</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
         <v>15554.06062289005</v>
       </c>
-      <c r="G27" t="n">
+      <c r="J27" t="n">
         <v>53683.6907008484</v>
       </c>
-      <c r="H27" t="n">
+      <c r="K27" t="n">
         <v>175.0223130185853</v>
       </c>
-      <c r="I27" t="n">
+      <c r="L27" t="n">
         <v>0.05283764225317527</v>
       </c>
-      <c r="J27" t="n">
+      <c r="M27" t="n">
         <v>0.02065154651760688</v>
       </c>
     </row>
@@ -1325,27 +1574,36 @@
         <v>3.5383556</v>
       </c>
       <c r="C28" t="n">
+        <v>0.9720006765043749</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9677090354811364</v>
+      </c>
+      <c r="E28" t="n">
         <v>1.777437621211309e-15</v>
       </c>
-      <c r="D28" t="n">
+      <c r="F28" t="n">
+        <v>3.349979550605961e-15</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.002358812926259921</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>539.9631541326152</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
         <v>15961.52973384009</v>
       </c>
-      <c r="G28" t="n">
+      <c r="J28" t="n">
         <v>55090.04022286325</v>
       </c>
-      <c r="H28" t="n">
+      <c r="K28" t="n">
         <v>191.9607118974633</v>
       </c>
-      <c r="I28" t="n">
+      <c r="L28" t="n">
         <v>0.04188565132743845</v>
       </c>
-      <c r="J28" t="n">
+      <c r="M28" t="n">
         <v>0.02300774882158562</v>
       </c>
     </row>
@@ -1357,27 +1615,36 @@
         <v>3.53376397920792</v>
       </c>
       <c r="C29" t="n">
+        <v>0.9796384539864306</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9762923346841972</v>
+      </c>
+      <c r="E29" t="n">
         <v>3.192106734551533e-16</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>8.292956358595344e-16</v>
+      </c>
+      <c r="G29" t="n">
         <v>3.861189400900426e-05</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>545.5201315118112</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
         <v>1440.032934413186</v>
       </c>
-      <c r="G29" t="n">
+      <c r="J29" t="n">
         <v>4970.167245992679</v>
       </c>
-      <c r="H29" t="n">
+      <c r="K29" t="n">
         <v>184.5861485786092</v>
       </c>
-      <c r="I29" t="n">
+      <c r="L29" t="n">
         <v>0.02727281250402279</v>
       </c>
-      <c r="J29" t="n">
+      <c r="M29" t="n">
         <v>0.1175475157659941</v>
       </c>
     </row>
@@ -1388,18 +1655,25 @@
       <c r="B30" t="n">
         <v>3.530204431683168</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>-91.59353095343378</v>
-      </c>
+      <c r="C30" t="n">
+        <v>0.9831777282732368</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9829845907053161</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>210.8978289065801</v>
+        <v>-91.59353095343378</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>210.8978289065801</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1409,27 +1683,36 @@
         <v>3.53185520990099</v>
       </c>
       <c r="C31" t="n">
+        <v>0.9842612342956543</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9833708835734571</v>
+      </c>
+      <c r="E31" t="n">
         <v>1.795251991618361e-16</v>
       </c>
-      <c r="D31" t="n">
+      <c r="F31" t="n">
+        <v>6.957439020036824e-16</v>
+      </c>
+      <c r="G31" t="n">
         <v>2.11394382609044e-05</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>631.9857333058985</v>
       </c>
-      <c r="F31" t="n">
+      <c r="I31" t="n">
         <v>1210.041476728726</v>
       </c>
-      <c r="G31" t="n">
+      <c r="J31" t="n">
         <v>4176.36872755308</v>
       </c>
-      <c r="H31" t="n">
+      <c r="K31" t="n">
         <v>186.5361262553787</v>
       </c>
-      <c r="I31" t="n">
+      <c r="L31" t="n">
         <v>0.009902623828250395</v>
       </c>
-      <c r="J31" t="n">
+      <c r="M31" t="n">
         <v>0.1339626768220264</v>
       </c>
     </row>
@@ -1441,27 +1724,36 @@
         <v>3.531265495049505</v>
       </c>
       <c r="C32" t="n">
+        <v>0.9867641892596353</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9851516021944809</v>
+      </c>
+      <c r="E32" t="n">
         <v>2.781641131699295e-16</v>
       </c>
-      <c r="D32" t="n">
+      <c r="F32" t="n">
+        <v>9.248416756418174e-16</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.880426197863933e-05</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>457.1223474426718</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
         <v>960.4223240821253</v>
       </c>
-      <c r="G32" t="n">
+      <c r="J32" t="n">
         <v>3314.8266705569</v>
       </c>
-      <c r="H32" t="n">
+      <c r="K32" t="n">
         <v>189.0491153126572</v>
       </c>
-      <c r="I32" t="n">
+      <c r="L32" t="n">
         <v>0.01342457598250059</v>
       </c>
-      <c r="J32" t="n">
+      <c r="M32" t="n">
         <v>0.1472761944861697</v>
       </c>
     </row>
